--- a/raw_data/KEEN ONE/Grabowski/2015/Canoe Beach/Canoe_Site_Info_1_25_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2015/Canoe Beach/Canoe_Site_Info_1_25_17.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Team</t>
   </si>
@@ -185,8 +185,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,7 +228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -235,6 +237,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -243,6 +246,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -685,17 +689,17 @@
       <c r="H2" s="5">
         <v>42220</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>18</v>
+      <c r="I2" s="11">
+        <v>42.421010000000003</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>19</v>
+      <c r="J2" s="11">
+        <v>-70.901349999999994</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>20</v>
+      <c r="K2" s="11">
+        <v>42.421349999999997</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>21</v>
+      <c r="L2" s="11">
+        <v>-70.905690000000007</v>
       </c>
       <c r="M2" s="3">
         <v>7.3</v>
@@ -735,17 +739,17 @@
       <c r="H3" s="5">
         <v>42243</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>26</v>
+      <c r="I3" s="11">
+        <v>42.420380000000002</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>27</v>
+      <c r="J3" s="11">
+        <v>-70.904219999999995</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>28</v>
+      <c r="K3" s="11">
+        <v>42.42042</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>29</v>
+      <c r="L3" s="11">
+        <v>-70.903819999999996</v>
       </c>
       <c r="M3" s="3">
         <v>6.09</v>
